--- a/data/checked/china/fujian/fujianCaseStatistics_20200404.xlsx
+++ b/data/checked/china/fujian/fujianCaseStatistics_20200404.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\ncov\COVID-19\data\checked\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A1A291-8575-465F-9DA1-481042DD7AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA440BBF-8820-4A2F-9F3E-29D45C67C765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10849,9 +10849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U96" sqref="U96"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" customHeight="1"/>
@@ -17463,7 +17463,7 @@
       </c>
       <c r="I80" s="19"/>
       <c r="K80" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" s="19"/>
       <c r="M80" s="15"/>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="Q80" s="19"/>
       <c r="R80" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S80" s="19"/>
       <c r="T80" s="15"/>
